--- a/state_results/Rivers/MangawheroatPakihiRdBridge_27eff78f83.xlsx
+++ b/state_results/Rivers/MangawheroatPakihiRdBridge_27eff78f83.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U256"/>
+  <dimension ref="A1:U277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>1.3</v>
       </c>
       <c r="G2" t="n">
-        <v>1.49225174677492</v>
+        <v>1.49209568489716</v>
       </c>
       <c r="H2" t="n">
         <v>3.74</v>
@@ -651,7 +651,7 @@
         <v>0.015</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0177287357848509</v>
+        <v>0.0177275965304324</v>
       </c>
       <c r="H3" t="n">
         <v>0.137</v>
@@ -732,7 +732,7 @@
         <v>0.015</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0177287357848509</v>
+        <v>0.0177275965304324</v>
       </c>
       <c r="H4" t="n">
         <v>0.137</v>
@@ -813,7 +813,7 @@
         <v>142.5</v>
       </c>
       <c r="G5" t="n">
-        <v>598.4140642856</v>
+        <v>598.391260573296</v>
       </c>
       <c r="H5" t="n">
         <v>10500</v>
@@ -898,7 +898,7 @@
         <v>142.5</v>
       </c>
       <c r="G6" t="n">
-        <v>598.4140642856</v>
+        <v>598.391260573296</v>
       </c>
       <c r="H6" t="n">
         <v>10500</v>
@@ -983,7 +983,7 @@
         <v>142.5</v>
       </c>
       <c r="G7" t="n">
-        <v>598.4140642856</v>
+        <v>598.391260573296</v>
       </c>
       <c r="H7" t="n">
         <v>10500</v>
@@ -1068,7 +1068,7 @@
         <v>142.5</v>
       </c>
       <c r="G8" t="n">
-        <v>598.4140642856</v>
+        <v>598.391260573296</v>
       </c>
       <c r="H8" t="n">
         <v>10500</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00615</v>
+        <v>0.00635</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0099259798038435</v>
+        <v>0.009943702750825401</v>
       </c>
       <c r="H9" t="n">
         <v>0.0694170868333794</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00615</v>
+        <v>0.00635</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0099259798038435</v>
+        <v>0.009943702750825401</v>
       </c>
       <c r="H10" t="n">
         <v>0.0694170868333794</v>
@@ -1315,7 +1315,7 @@
         <v>0.26</v>
       </c>
       <c r="G11" t="n">
-        <v>0.258039056688689</v>
+        <v>0.258079988808364</v>
       </c>
       <c r="H11" t="n">
         <v>0.7</v>
@@ -1396,7 +1396,7 @@
         <v>0.26</v>
       </c>
       <c r="G12" t="n">
-        <v>0.258039056688689</v>
+        <v>0.258079988808364</v>
       </c>
       <c r="H12" t="n">
         <v>0.7</v>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.266</v>
+        <v>0.2655</v>
       </c>
       <c r="G13" t="n">
-        <v>0.262938966697268</v>
+        <v>0.262946266446555</v>
       </c>
       <c r="H13" t="n">
         <v>0.78</v>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.266</v>
+        <v>0.2655</v>
       </c>
       <c r="G14" t="n">
-        <v>0.262938966697268</v>
+        <v>0.262946266446555</v>
       </c>
       <c r="H14" t="n">
         <v>0.78</v>
@@ -1631,7 +1631,7 @@
         <v>1.22</v>
       </c>
       <c r="G15" t="n">
-        <v>1.39168570903907</v>
+        <v>1.39152964716131</v>
       </c>
       <c r="H15" t="n">
         <v>3.74</v>
@@ -1712,7 +1712,7 @@
         <v>0.012</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0134723639622151</v>
+        <v>0.0134704015603118</v>
       </c>
       <c r="H16" t="n">
         <v>0.03</v>
@@ -1793,7 +1793,7 @@
         <v>0.012</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0134723639622151</v>
+        <v>0.0134704015603118</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
@@ -1874,7 +1874,7 @@
         <v>137.5</v>
       </c>
       <c r="G18" t="n">
-        <v>575.8106160097381</v>
+        <v>575.787812297434</v>
       </c>
       <c r="H18" t="n">
         <v>10500</v>
@@ -1959,7 +1959,7 @@
         <v>137.5</v>
       </c>
       <c r="G19" t="n">
-        <v>575.8106160097381</v>
+        <v>575.787812297434</v>
       </c>
       <c r="H19" t="n">
         <v>10500</v>
@@ -2044,7 +2044,7 @@
         <v>137.5</v>
       </c>
       <c r="G20" t="n">
-        <v>575.8106160097381</v>
+        <v>575.787812297434</v>
       </c>
       <c r="H20" t="n">
         <v>10500</v>
@@ -2129,7 +2129,7 @@
         <v>137.5</v>
       </c>
       <c r="G21" t="n">
-        <v>575.8106160097381</v>
+        <v>575.787812297434</v>
       </c>
       <c r="H21" t="n">
         <v>10500</v>
@@ -2214,7 +2214,7 @@
         <v>0.00742</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0122332239534678</v>
+        <v>0.0122517738706548</v>
       </c>
       <c r="H22" t="n">
         <v>0.0694170868333794</v>
@@ -2295,7 +2295,7 @@
         <v>0.00742</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0122332239534678</v>
+        <v>0.0122517738706548</v>
       </c>
       <c r="H23" t="n">
         <v>0.0694170868333794</v>
@@ -2534,7 +2534,7 @@
         <v>0.266</v>
       </c>
       <c r="G26" t="n">
-        <v>0.274864406779661</v>
+        <v>0.274849152542373</v>
       </c>
       <c r="H26" t="n">
         <v>0.78</v>
@@ -2611,7 +2611,7 @@
         <v>0.266</v>
       </c>
       <c r="G27" t="n">
-        <v>0.274864406779661</v>
+        <v>0.274849152542373</v>
       </c>
       <c r="H27" t="n">
         <v>0.78</v>
@@ -3000,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>1.20469299174648</v>
+        <v>1.20453080979509</v>
       </c>
       <c r="H32" t="n">
         <v>3.74</v>
@@ -3081,7 +3081,7 @@
         <v>0.012</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0124554925841439</v>
+        <v>0.0124546694366591</v>
       </c>
       <c r="H33" t="n">
         <v>0.03</v>
@@ -3162,7 +3162,7 @@
         <v>0.012</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0124554925841439</v>
+        <v>0.0124546694366591</v>
       </c>
       <c r="H34" t="n">
         <v>0.03</v>
@@ -3583,7 +3583,7 @@
         <v>0.01121</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0153714835527723</v>
+        <v>0.0153811652334309</v>
       </c>
       <c r="H39" t="n">
         <v>0.0694170868333794</v>
@@ -3664,7 +3664,7 @@
         <v>0.01121</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0153714835527723</v>
+        <v>0.0153811652334309</v>
       </c>
       <c r="H40" t="n">
         <v>0.0694170868333794</v>
@@ -3903,7 +3903,7 @@
         <v>0.261</v>
       </c>
       <c r="G43" t="n">
-        <v>0.282508474576271</v>
+        <v>0.282476271186441</v>
       </c>
       <c r="H43" t="n">
         <v>0.845</v>
@@ -3980,7 +3980,7 @@
         <v>0.261</v>
       </c>
       <c r="G44" t="n">
-        <v>0.282508474576271</v>
+        <v>0.282476271186441</v>
       </c>
       <c r="H44" t="n">
         <v>0.845</v>
@@ -4450,7 +4450,7 @@
         <v>1.2</v>
       </c>
       <c r="G50" t="n">
-        <v>1.12631311385858</v>
+        <v>1.12614431223571</v>
       </c>
       <c r="H50" t="n">
         <v>3</v>
@@ -4531,7 +4531,7 @@
         <v>0.012</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0124046451265167</v>
+        <v>0.012403821979032</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
@@ -4612,7 +4612,7 @@
         <v>0.012</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0124046451265167</v>
+        <v>0.012403821979032</v>
       </c>
       <c r="H52" t="n">
         <v>0.03</v>
@@ -5110,7 +5110,7 @@
         <v>0.01104</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0138260924884323</v>
+        <v>0.0138351587941894</v>
       </c>
       <c r="H58" t="n">
         <v>0.058334674441132</v>
@@ -5121,7 +5121,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0.00679</v>
+        <v>0.00689</v>
       </c>
       <c r="M58" t="n">
         <v>0.02378</v>
@@ -5191,7 +5191,7 @@
         <v>0.01104</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0138260924884323</v>
+        <v>0.0138351587941894</v>
       </c>
       <c r="H59" t="n">
         <v>0.058334674441132</v>
@@ -5202,7 +5202,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>0.00679</v>
+        <v>0.00689</v>
       </c>
       <c r="M59" t="n">
         <v>0.02378</v>
@@ -5430,7 +5430,7 @@
         <v>0.232</v>
       </c>
       <c r="G62" t="n">
-        <v>0.269694915254237</v>
+        <v>0.269662711864407</v>
       </c>
       <c r="H62" t="n">
         <v>0.845</v>
@@ -5441,7 +5441,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.112</v>
+        <v>0.11175</v>
       </c>
       <c r="M62" t="n">
         <v>0.44817</v>
@@ -5507,7 +5507,7 @@
         <v>0.232</v>
       </c>
       <c r="G63" t="n">
-        <v>0.269694915254237</v>
+        <v>0.269662711864407</v>
       </c>
       <c r="H63" t="n">
         <v>0.845</v>
@@ -5518,7 +5518,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.112</v>
+        <v>0.11175</v>
       </c>
       <c r="M63" t="n">
         <v>0.44817</v>
@@ -6054,7 +6054,7 @@
         <v>1.2</v>
       </c>
       <c r="G70" t="n">
-        <v>1.21253117378369</v>
+        <v>1.21186371037115</v>
       </c>
       <c r="H70" t="n">
         <v>3</v>
@@ -6135,7 +6135,7 @@
         <v>0.012</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0136249841095676</v>
+        <v>0.0136241609620828</v>
       </c>
       <c r="H71" t="n">
         <v>0.032</v>
@@ -6216,7 +6216,7 @@
         <v>0.012</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0136249841095676</v>
+        <v>0.0136241609620828</v>
       </c>
       <c r="H72" t="n">
         <v>0.032</v>
@@ -6714,7 +6714,7 @@
         <v>0.01092</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0127249332501787</v>
+        <v>0.0127276329912474</v>
       </c>
       <c r="H78" t="n">
         <v>0.058334674441132</v>
@@ -6795,7 +6795,7 @@
         <v>0.01092</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0127249332501787</v>
+        <v>0.0127276329912474</v>
       </c>
       <c r="H79" t="n">
         <v>0.058334674441132</v>
@@ -7111,7 +7111,7 @@
         <v>0.232</v>
       </c>
       <c r="G83" t="n">
-        <v>0.263033898305085</v>
+        <v>0.263023728813559</v>
       </c>
       <c r="H83" t="n">
         <v>0.845</v>
@@ -7122,13 +7122,13 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>0.1085</v>
+        <v>0.10875</v>
       </c>
       <c r="M83" t="n">
-        <v>0.42286</v>
+        <v>0.42307</v>
       </c>
       <c r="N83" t="n">
-        <v>0.52346</v>
+        <v>0.52355</v>
       </c>
       <c r="O83" t="n">
         <v>1799947</v>
@@ -7188,7 +7188,7 @@
         <v>0.232</v>
       </c>
       <c r="G84" t="n">
-        <v>0.263033898305085</v>
+        <v>0.263023728813559</v>
       </c>
       <c r="H84" t="n">
         <v>0.845</v>
@@ -7199,13 +7199,13 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
-        <v>0.1085</v>
+        <v>0.10875</v>
       </c>
       <c r="M84" t="n">
-        <v>0.42286</v>
+        <v>0.42307</v>
       </c>
       <c r="N84" t="n">
-        <v>0.52346</v>
+        <v>0.52355</v>
       </c>
       <c r="O84" t="n">
         <v>1799947</v>
@@ -7735,10 +7735,10 @@
         <v>1.4</v>
       </c>
       <c r="G91" t="n">
-        <v>1.35012860174872</v>
+        <v>1.34947422585407</v>
       </c>
       <c r="H91" t="n">
-        <v>2.7815586891846</v>
+        <v>2.74818551855765</v>
       </c>
       <c r="I91" t="n">
         <v>2.396</v>
@@ -7816,7 +7816,7 @@
         <v>0.0125</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0136645677077415</v>
+        <v>0.0136637582793814</v>
       </c>
       <c r="H92" t="n">
         <v>0.034</v>
@@ -7897,7 +7897,7 @@
         <v>0.0125</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0136645677077415</v>
+        <v>0.0136637582793814</v>
       </c>
       <c r="H93" t="n">
         <v>0.034</v>
@@ -8395,7 +8395,7 @@
         <v>0.00953</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0108592428323202</v>
+        <v>0.0108671787571432</v>
       </c>
       <c r="H99" t="n">
         <v>0.058334674441132</v>
@@ -8406,7 +8406,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.0014</v>
+        <v>0.0015</v>
       </c>
       <c r="M99" t="n">
         <v>0.0222</v>
@@ -8476,7 +8476,7 @@
         <v>0.00953</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0108592428323202</v>
+        <v>0.0108671787571432</v>
       </c>
       <c r="H100" t="n">
         <v>0.058334674441132</v>
@@ -8487,7 +8487,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>0.0014</v>
+        <v>0.0015</v>
       </c>
       <c r="M100" t="n">
         <v>0.0222</v>
@@ -8789,10 +8789,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.239</v>
+        <v>0.23895</v>
       </c>
       <c r="G104" t="n">
-        <v>0.257183333333333</v>
+        <v>0.257138333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0.845</v>
@@ -8803,13 +8803,13 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>0.104</v>
+        <v>0.10415</v>
       </c>
       <c r="M104" t="n">
-        <v>0.3866</v>
+        <v>0.38646</v>
       </c>
       <c r="N104" t="n">
-        <v>0.5174</v>
+        <v>0.51768</v>
       </c>
       <c r="O104" t="n">
         <v>1799947</v>
@@ -8866,10 +8866,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.239</v>
+        <v>0.23895</v>
       </c>
       <c r="G105" t="n">
-        <v>0.257183333333333</v>
+        <v>0.257138333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0.845</v>
@@ -8880,13 +8880,13 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.104</v>
+        <v>0.10415</v>
       </c>
       <c r="M105" t="n">
-        <v>0.3866</v>
+        <v>0.38646</v>
       </c>
       <c r="N105" t="n">
-        <v>0.5174</v>
+        <v>0.51768</v>
       </c>
       <c r="O105" t="n">
         <v>1799947</v>
@@ -9416,7 +9416,7 @@
         <v>1.5</v>
       </c>
       <c r="G112" t="n">
-        <v>1.45477566057225</v>
+        <v>1.4541212846776</v>
       </c>
       <c r="H112" t="n">
         <v>2.91</v>
@@ -10073,10 +10073,10 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.00187</v>
+        <v>0.00195</v>
       </c>
       <c r="G120" t="n">
-        <v>0.007281138968969</v>
+        <v>0.0073019003477588</v>
       </c>
       <c r="H120" t="n">
         <v>0.0506780089589887</v>
@@ -10087,7 +10087,7 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>0.00132</v>
+        <v>0.00136</v>
       </c>
       <c r="M120" t="n">
         <v>0.0153</v>
@@ -10154,10 +10154,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.00187</v>
+        <v>0.00195</v>
       </c>
       <c r="G121" t="n">
-        <v>0.007281138968969</v>
+        <v>0.0073019003477588</v>
       </c>
       <c r="H121" t="n">
         <v>0.0506780089589887</v>
@@ -10168,7 +10168,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>0.00132</v>
+        <v>0.00136</v>
       </c>
       <c r="M121" t="n">
         <v>0.0153</v>
@@ -10238,7 +10238,7 @@
         <v>0.1965</v>
       </c>
       <c r="G122" t="n">
-        <v>0.226503478208798</v>
+        <v>0.226529358044205</v>
       </c>
       <c r="H122" t="n">
         <v>0.821</v>
@@ -10319,7 +10319,7 @@
         <v>0.1965</v>
       </c>
       <c r="G123" t="n">
-        <v>0.226503478208798</v>
+        <v>0.226529358044205</v>
       </c>
       <c r="H123" t="n">
         <v>0.821</v>
@@ -10470,10 +10470,10 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.2165</v>
+        <v>0.21635</v>
       </c>
       <c r="G125" t="n">
-        <v>0.241816666666667</v>
+        <v>0.241771666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0.845</v>
@@ -10490,7 +10490,7 @@
         <v>0.3745</v>
       </c>
       <c r="N125" t="n">
-        <v>0.5141</v>
+        <v>0.5143799999999999</v>
       </c>
       <c r="O125" t="n">
         <v>1799947</v>
@@ -10547,10 +10547,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.2165</v>
+        <v>0.21635</v>
       </c>
       <c r="G126" t="n">
-        <v>0.241816666666667</v>
+        <v>0.241771666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0.845</v>
@@ -10567,7 +10567,7 @@
         <v>0.3745</v>
       </c>
       <c r="N126" t="n">
-        <v>0.5141</v>
+        <v>0.5143799999999999</v>
       </c>
       <c r="O126" t="n">
         <v>1799947</v>
@@ -11097,7 +11097,7 @@
         <v>1.5</v>
       </c>
       <c r="G133" t="n">
-        <v>1.5428973337582</v>
+        <v>1.54226765129354</v>
       </c>
       <c r="H133" t="n">
         <v>2.91</v>
@@ -11754,10 +11754,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.00177</v>
+        <v>0.00185</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0060412910479622</v>
+        <v>0.0060685214630043</v>
       </c>
       <c r="H141" t="n">
         <v>0.06561824242695589</v>
@@ -11768,7 +11768,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.00132</v>
+        <v>0.00136</v>
       </c>
       <c r="M141" t="n">
         <v>0.01242</v>
@@ -11835,10 +11835,10 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.00177</v>
+        <v>0.00185</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0060412910479622</v>
+        <v>0.0060685214630043</v>
       </c>
       <c r="H142" t="n">
         <v>0.06561824242695589</v>
@@ -11849,7 +11849,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.00132</v>
+        <v>0.00136</v>
       </c>
       <c r="M142" t="n">
         <v>0.01242</v>
@@ -11919,7 +11919,7 @@
         <v>0.2101</v>
       </c>
       <c r="G143" t="n">
-        <v>0.228570144875465</v>
+        <v>0.228596024710872</v>
       </c>
       <c r="H143" t="n">
         <v>0.6368</v>
@@ -12000,7 +12000,7 @@
         <v>0.2101</v>
       </c>
       <c r="G144" t="n">
-        <v>0.228570144875465</v>
+        <v>0.228596024710872</v>
       </c>
       <c r="H144" t="n">
         <v>0.6368</v>
@@ -12151,13 +12151,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.219</v>
+        <v>0.21885</v>
       </c>
       <c r="G146" t="n">
-        <v>0.243516666666667</v>
+        <v>0.243471666666667</v>
       </c>
       <c r="H146" t="n">
-        <v>0.672</v>
+        <v>0.6715</v>
       </c>
       <c r="I146" t="n">
         <v>0.5600000000000001</v>
@@ -12165,13 +12165,13 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.095</v>
+        <v>0.0949</v>
       </c>
       <c r="M146" t="n">
-        <v>0.3872</v>
+        <v>0.38706</v>
       </c>
       <c r="N146" t="n">
-        <v>0.5141</v>
+        <v>0.5143799999999999</v>
       </c>
       <c r="O146" t="n">
         <v>1799947</v>
@@ -12228,13 +12228,13 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.219</v>
+        <v>0.21885</v>
       </c>
       <c r="G147" t="n">
-        <v>0.243516666666667</v>
+        <v>0.243471666666667</v>
       </c>
       <c r="H147" t="n">
-        <v>0.672</v>
+        <v>0.6715</v>
       </c>
       <c r="I147" t="n">
         <v>0.5600000000000001</v>
@@ -12242,13 +12242,13 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.095</v>
+        <v>0.0949</v>
       </c>
       <c r="M147" t="n">
-        <v>0.3872</v>
+        <v>0.38706</v>
       </c>
       <c r="N147" t="n">
-        <v>0.5141</v>
+        <v>0.5143799999999999</v>
       </c>
       <c r="O147" t="n">
         <v>1799947</v>
@@ -12778,7 +12778,7 @@
         <v>1.5</v>
       </c>
       <c r="G154" t="n">
-        <v>1.50715561253063</v>
+        <v>1.50654882761014</v>
       </c>
       <c r="H154" t="n">
         <v>2.91</v>
@@ -13435,10 +13435,10 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.00194</v>
+        <v>0.00203</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0063088903792626</v>
+        <v>0.0063409687809711</v>
       </c>
       <c r="H162" t="n">
         <v>0.06561824242695589</v>
@@ -13449,7 +13449,7 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>0.00158</v>
+        <v>0.00167</v>
       </c>
       <c r="M162" t="n">
         <v>0.01211</v>
@@ -13516,10 +13516,10 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.00194</v>
+        <v>0.00203</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0063088903792626</v>
+        <v>0.0063409687809711</v>
       </c>
       <c r="H163" t="n">
         <v>0.06561824242695589</v>
@@ -13530,7 +13530,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
-        <v>0.00158</v>
+        <v>0.00167</v>
       </c>
       <c r="M163" t="n">
         <v>0.01211</v>
@@ -13600,7 +13600,7 @@
         <v>0.24935</v>
       </c>
       <c r="G164" t="n">
-        <v>0.256785144875465</v>
+        <v>0.256811024710872</v>
       </c>
       <c r="H164" t="n">
         <v>0.6368</v>
@@ -13681,7 +13681,7 @@
         <v>0.24935</v>
       </c>
       <c r="G165" t="n">
-        <v>0.256785144875465</v>
+        <v>0.256811024710872</v>
       </c>
       <c r="H165" t="n">
         <v>0.6368</v>
@@ -13835,10 +13835,10 @@
         <v>0.265</v>
       </c>
       <c r="G167" t="n">
-        <v>0.27215</v>
+        <v>0.272111666666667</v>
       </c>
       <c r="H167" t="n">
-        <v>0.672</v>
+        <v>0.6715</v>
       </c>
       <c r="I167" t="n">
         <v>0.5600000000000001</v>
@@ -13912,10 +13912,10 @@
         <v>0.265</v>
       </c>
       <c r="G168" t="n">
-        <v>0.27215</v>
+        <v>0.272111666666667</v>
       </c>
       <c r="H168" t="n">
-        <v>0.672</v>
+        <v>0.6715</v>
       </c>
       <c r="I168" t="n">
         <v>0.5600000000000001</v>
@@ -15116,10 +15116,10 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.00233</v>
+        <v>0.00244</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0069899365571498</v>
+        <v>0.0070296351598546</v>
       </c>
       <c r="H183" t="n">
         <v>0.06561824242695589</v>
@@ -15130,7 +15130,7 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
-        <v>0.0018</v>
+        <v>0.00187</v>
       </c>
       <c r="M183" t="n">
         <v>0.01386</v>
@@ -15197,10 +15197,10 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.00233</v>
+        <v>0.00244</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0069899365571498</v>
+        <v>0.0070296351598546</v>
       </c>
       <c r="H184" t="n">
         <v>0.06561824242695589</v>
@@ -15211,7 +15211,7 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
-        <v>0.0018</v>
+        <v>0.00187</v>
       </c>
       <c r="M184" t="n">
         <v>0.01386</v>
@@ -15281,7 +15281,7 @@
         <v>0.24935</v>
       </c>
       <c r="G185" t="n">
-        <v>0.256796811542131</v>
+        <v>0.256822691377538</v>
       </c>
       <c r="H185" t="n">
         <v>0.6368</v>
@@ -15362,7 +15362,7 @@
         <v>0.24935</v>
       </c>
       <c r="G186" t="n">
-        <v>0.256796811542131</v>
+        <v>0.256822691377538</v>
       </c>
       <c r="H186" t="n">
         <v>0.6368</v>
@@ -15516,10 +15516,10 @@
         <v>0.255</v>
       </c>
       <c r="G188" t="n">
-        <v>0.273166666666667</v>
+        <v>0.273131666666667</v>
       </c>
       <c r="H188" t="n">
-        <v>0.672</v>
+        <v>0.6715</v>
       </c>
       <c r="I188" t="n">
         <v>0.5600000000000001</v>
@@ -15593,10 +15593,10 @@
         <v>0.255</v>
       </c>
       <c r="G189" t="n">
-        <v>0.273166666666667</v>
+        <v>0.273131666666667</v>
       </c>
       <c r="H189" t="n">
-        <v>0.672</v>
+        <v>0.6715</v>
       </c>
       <c r="I189" t="n">
         <v>0.5600000000000001</v>
@@ -16800,7 +16800,7 @@
         <v>0.00494</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0079017474404494</v>
+        <v>0.0079368305990928</v>
       </c>
       <c r="H204" t="n">
         <v>0.06561824242695589</v>
@@ -16811,7 +16811,7 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
-        <v>0.00196</v>
+        <v>0.00202</v>
       </c>
       <c r="M204" t="n">
         <v>0.01458</v>
@@ -16881,7 +16881,7 @@
         <v>0.00494</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0079017474404494</v>
+        <v>0.0079368305990928</v>
       </c>
       <c r="H205" t="n">
         <v>0.06561824242695589</v>
@@ -16892,7 +16892,7 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
-        <v>0.00196</v>
+        <v>0.00202</v>
       </c>
       <c r="M205" t="n">
         <v>0.01458</v>
@@ -16962,7 +16962,7 @@
         <v>0.24</v>
       </c>
       <c r="G206" t="n">
-        <v>0.258596757500472</v>
+        <v>0.258623075977158</v>
       </c>
       <c r="H206" t="n">
         <v>0.653</v>
@@ -17043,7 +17043,7 @@
         <v>0.24</v>
       </c>
       <c r="G207" t="n">
-        <v>0.258596757500472</v>
+        <v>0.258623075977158</v>
       </c>
       <c r="H207" t="n">
         <v>0.653</v>
@@ -17197,7 +17197,7 @@
         <v>0.255</v>
       </c>
       <c r="G209" t="n">
-        <v>0.275220338983051</v>
+        <v>0.27521186440678</v>
       </c>
       <c r="H209" t="n">
         <v>0.67</v>
@@ -17274,7 +17274,7 @@
         <v>0.255</v>
       </c>
       <c r="G210" t="n">
-        <v>0.275220338983051</v>
+        <v>0.27521186440678</v>
       </c>
       <c r="H210" t="n">
         <v>0.67</v>
@@ -18481,7 +18481,7 @@
         <v>0.00586</v>
       </c>
       <c r="G225" t="n">
-        <v>0.009116894505531201</v>
+        <v>0.0091383219532566</v>
       </c>
       <c r="H225" t="n">
         <v>0.06561824242695589</v>
@@ -18492,7 +18492,7 @@
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
-        <v>0.00196</v>
+        <v>0.00202</v>
       </c>
       <c r="M225" t="n">
         <v>0.01686</v>
@@ -18562,7 +18562,7 @@
         <v>0.00586</v>
       </c>
       <c r="G226" t="n">
-        <v>0.009116894505531201</v>
+        <v>0.0091383219532566</v>
       </c>
       <c r="H226" t="n">
         <v>0.06561824242695589</v>
@@ -18573,7 +18573,7 @@
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
-        <v>0.00196</v>
+        <v>0.00202</v>
       </c>
       <c r="M226" t="n">
         <v>0.01686</v>
@@ -18878,7 +18878,7 @@
         <v>0.255</v>
       </c>
       <c r="G230" t="n">
-        <v>0.274525423728814</v>
+        <v>0.274542372881356</v>
       </c>
       <c r="H230" t="n">
         <v>0.67</v>
@@ -18955,7 +18955,7 @@
         <v>0.255</v>
       </c>
       <c r="G231" t="n">
-        <v>0.274525423728814</v>
+        <v>0.274542372881356</v>
       </c>
       <c r="H231" t="n">
         <v>0.67</v>
@@ -20162,7 +20162,7 @@
         <v>0.00809</v>
       </c>
       <c r="G246" t="n">
-        <v>0.0098333232854401</v>
+        <v>0.009848318430348999</v>
       </c>
       <c r="H246" t="n">
         <v>0.0298664792691186</v>
@@ -20173,7 +20173,7 @@
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
-        <v>0.00206</v>
+        <v>0.00211</v>
       </c>
       <c r="M246" t="n">
         <v>0.01831</v>
@@ -20243,7 +20243,7 @@
         <v>0.00809</v>
       </c>
       <c r="G247" t="n">
-        <v>0.0098333232854401</v>
+        <v>0.009848318430348999</v>
       </c>
       <c r="H247" t="n">
         <v>0.0298664792691186</v>
@@ -20254,7 +20254,7 @@
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
-        <v>0.00206</v>
+        <v>0.00211</v>
       </c>
       <c r="M247" t="n">
         <v>0.01831</v>
@@ -20559,7 +20559,7 @@
         <v>0.255</v>
       </c>
       <c r="G251" t="n">
-        <v>0.279203389830508</v>
+        <v>0.279220338983051</v>
       </c>
       <c r="H251" t="n">
         <v>0.786</v>
@@ -20636,7 +20636,7 @@
         <v>0.255</v>
       </c>
       <c r="G252" t="n">
-        <v>0.279203389830508</v>
+        <v>0.279220338983051</v>
       </c>
       <c r="H252" t="n">
         <v>0.786</v>
@@ -20995,6 +20995,1687 @@
         </is>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.4388</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.49655</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O257" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P257" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G258" t="n">
+        <v>30.7569444444444</v>
+      </c>
+      <c r="H258" t="n">
+        <v>110</v>
+      </c>
+      <c r="I258" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M258" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="N258" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="O258" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P258" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1.65784090909091</v>
+      </c>
+      <c r="H259" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I259" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M259" t="n">
+        <v>2.504</v>
+      </c>
+      <c r="N259" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P259" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.0169152542372881</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.03155</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.02547</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.02956</v>
+      </c>
+      <c r="O260" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P260" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.0169152542372881</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.03155</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.02547</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.02956</v>
+      </c>
+      <c r="O261" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P261" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>135</v>
+      </c>
+      <c r="G262" t="n">
+        <v>319.258620689655</v>
+      </c>
+      <c r="H262" t="n">
+        <v>4480</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1011.2</v>
+      </c>
+      <c r="J262" t="n">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="K262" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="L262" t="n">
+        <v>144</v>
+      </c>
+      <c r="M262" t="n">
+        <v>349.2</v>
+      </c>
+      <c r="N262" t="n">
+        <v>778.78</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P262" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>135</v>
+      </c>
+      <c r="G263" t="n">
+        <v>319.258620689655</v>
+      </c>
+      <c r="H263" t="n">
+        <v>4480</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1011.2</v>
+      </c>
+      <c r="J263" t="n">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="K263" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="L263" t="n">
+        <v>144</v>
+      </c>
+      <c r="M263" t="n">
+        <v>349.2</v>
+      </c>
+      <c r="N263" t="n">
+        <v>778.78</v>
+      </c>
+      <c r="O263" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P263" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>135</v>
+      </c>
+      <c r="G264" t="n">
+        <v>319.258620689655</v>
+      </c>
+      <c r="H264" t="n">
+        <v>4480</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1011.2</v>
+      </c>
+      <c r="J264" t="n">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="K264" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="L264" t="n">
+        <v>144</v>
+      </c>
+      <c r="M264" t="n">
+        <v>349.2</v>
+      </c>
+      <c r="N264" t="n">
+        <v>778.78</v>
+      </c>
+      <c r="O264" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P264" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>135</v>
+      </c>
+      <c r="G265" t="n">
+        <v>319.258620689655</v>
+      </c>
+      <c r="H265" t="n">
+        <v>4480</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1011.2</v>
+      </c>
+      <c r="J265" t="n">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="K265" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="L265" t="n">
+        <v>144</v>
+      </c>
+      <c r="M265" t="n">
+        <v>349.2</v>
+      </c>
+      <c r="N265" t="n">
+        <v>778.78</v>
+      </c>
+      <c r="O265" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P265" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G266" t="n">
+        <v>109.614</v>
+      </c>
+      <c r="H266" t="n">
+        <v>116.84</v>
+      </c>
+      <c r="I266" t="n">
+        <v>116.84</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>109</v>
+      </c>
+      <c r="M266" t="n">
+        <v>115.146</v>
+      </c>
+      <c r="N266" t="n">
+        <v>116.84</v>
+      </c>
+      <c r="O266" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P266" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.0115646418634118</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0.0484046610113901</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.02993</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>0.00235</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0.02016</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="O267" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P267" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.0115646418634118</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0.0484046610113901</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.02993</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>0.00235</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0.02016</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="O268" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P268" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.258508474576271</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0.5493</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>0.1255</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0.40858</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0.52516</v>
+      </c>
+      <c r="O269" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P269" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.258508474576271</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0.5493</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>0.1255</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0.40858</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0.52516</v>
+      </c>
+      <c r="O270" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P270" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="G271" t="n">
+        <v>4.5516</v>
+      </c>
+      <c r="H271" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="I271" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="M271" t="n">
+        <v>5.1865</v>
+      </c>
+      <c r="N271" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="O271" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P271" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.281762711864407</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0.5731000000000001</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0.43787</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0.5665</v>
+      </c>
+      <c r="O272" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P272" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.281762711864407</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0.5731000000000001</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0.43787</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0.5665</v>
+      </c>
+      <c r="O273" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P273" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.424745762711864</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0.6247</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0.6978</v>
+      </c>
+      <c r="O274" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P274" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.424745762711864</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0.6247</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0.6978</v>
+      </c>
+      <c r="O275" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P275" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.0340338983050847</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.06575</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0.04447</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0.05734</v>
+      </c>
+      <c r="O276" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P276" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0340338983050847</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0.06575</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0.04447</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0.05734</v>
+      </c>
+      <c r="O277" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="P277" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangawheroatPakihiRdBridge_27eff78f83.xlsx
+++ b/state_results/Rivers/MangawheroatPakihiRdBridge_27eff78f83.xlsx
@@ -6054,7 +6054,7 @@
         <v>1.2</v>
       </c>
       <c r="G70" t="n">
-        <v>1.21186371037115</v>
+        <v>1.21513215209219</v>
       </c>
       <c r="H70" t="n">
         <v>3</v>
@@ -7735,10 +7735,10 @@
         <v>1.4</v>
       </c>
       <c r="G91" t="n">
-        <v>1.34947422585407</v>
+        <v>1.35267858048254</v>
       </c>
       <c r="H91" t="n">
-        <v>2.74818551855765</v>
+        <v>2.91160760460937</v>
       </c>
       <c r="I91" t="n">
         <v>2.396</v>
@@ -9416,10 +9416,10 @@
         <v>1.5</v>
       </c>
       <c r="G112" t="n">
-        <v>1.4541212846776</v>
+        <v>1.45732563930607</v>
       </c>
       <c r="H112" t="n">
-        <v>2.91</v>
+        <v>2.91160760460937</v>
       </c>
       <c r="I112" t="n">
         <v>2.59</v>
@@ -11097,10 +11097,10 @@
         <v>1.5</v>
       </c>
       <c r="G133" t="n">
-        <v>1.54226765129354</v>
+        <v>1.54535108687942</v>
       </c>
       <c r="H133" t="n">
-        <v>2.91</v>
+        <v>2.91160760460937</v>
       </c>
       <c r="I133" t="n">
         <v>2.558</v>
@@ -12778,10 +12778,10 @@
         <v>1.5</v>
       </c>
       <c r="G154" t="n">
-        <v>1.50654882761014</v>
+        <v>1.50952013826562</v>
       </c>
       <c r="H154" t="n">
-        <v>2.91</v>
+        <v>2.91160760460937</v>
       </c>
       <c r="I154" t="n">
         <v>2.575</v>
